--- a/Problem_C_Data_Wordle.xlsx
+++ b/Problem_C_Data_Wordle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Wordle-MCM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Codeee/Wordle-MCM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CD7BE0-ED7B-4FF9-A7F2-CE20F4A91A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E70AD15-2482-5F40-B5FE-9775B0431948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BE11D8C7-548A-6E47-9F96-66C18673C8FF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{BE11D8C7-548A-6E47-9F96-66C18673C8FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1069,9 +1069,6 @@
     <t>chord</t>
   </si>
   <si>
-    <t>rprobe</t>
-  </si>
-  <si>
     <t>rival</t>
   </si>
   <si>
@@ -1084,9 +1081,6 @@
     <t>apply</t>
   </si>
   <si>
-    <t>naïve</t>
-  </si>
-  <si>
     <t>knock</t>
   </si>
   <si>
@@ -1151,6 +1145,12 @@
   </si>
   <si>
     <t>7 or more tries (X)</t>
+  </si>
+  <si>
+    <t>probe</t>
+  </si>
+  <si>
+    <t>naive</t>
   </si>
 </sst>
 </file>
@@ -1523,11 +1523,11 @@
   <dimension ref="A1:L481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1"/>
     <col min="2" max="4" width="15" style="1" customWidth="1"/>
@@ -1536,13 +1536,13 @@
     <col min="7" max="7" width="7.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.08203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.58203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.83203125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
@@ -1553,7 +1553,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1588,10 +1588,10 @@
         <v>9</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>44926</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>560</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D3" s="2">
         <v>20380</v>
@@ -1629,7 +1629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>44925</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>559</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D4" s="2">
         <v>21204</v>
@@ -1667,7 +1667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>44924</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>558</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D5" s="2">
         <v>20001</v>
@@ -1705,7 +1705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>44923</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>557</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D6" s="2">
         <v>20160</v>
@@ -1743,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>44922</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>556</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D7" s="2">
         <v>20879</v>
@@ -1781,7 +1781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>44921</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>555</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D8" s="2">
         <v>20011</v>
@@ -1819,7 +1819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>44920</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>554</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D9" s="2">
         <v>15554</v>
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>44919</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>553</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D10" s="2">
         <v>20281</v>
@@ -1895,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>44918</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>552</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D11" s="2">
         <v>21937</v>
@@ -1933,7 +1933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>44917</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>551</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D12" s="2">
         <v>20490</v>
@@ -1971,7 +1971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>44916</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>550</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D13" s="2">
         <v>22180</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>44915</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>549</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D14" s="1">
         <v>24137</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>44914</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>44913</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>44912</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>44911</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>545</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="D18" s="2">
         <v>22853</v>
@@ -2199,7 +2199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>44910</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>544</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D19" s="2">
         <v>22176</v>
@@ -2237,7 +2237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>44909</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>543</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D20" s="2">
         <v>20824</v>
@@ -2275,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>44908</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>542</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D21" s="2">
         <v>24101</v>
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>44907</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>541</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D22" s="2">
         <v>22873</v>
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>44906</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>540</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="D23" s="2">
         <v>21947</v>
@@ -2389,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>44905</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>539</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D24" s="2">
         <v>21157</v>
@@ -2427,7 +2427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>44904</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>538</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D25" s="2">
         <v>23640</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>44903</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>537</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D26" s="2">
         <v>21199</v>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>44902</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>536</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D27" s="2">
         <v>24899</v>
@@ -2541,7 +2541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>44901</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>535</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D28" s="2">
         <v>23509</v>
@@ -2579,7 +2579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>44900</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>534</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D29" s="2">
         <v>23153</v>
@@ -2617,7 +2617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>44899</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>533</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D30" s="2">
         <v>25577</v>
@@ -2655,7 +2655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>44898</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>532</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D31" s="2">
         <v>23873</v>
@@ -2693,7 +2693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>44897</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>531</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D32" s="2">
         <v>24646</v>
@@ -2731,7 +2731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>44896</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>44895</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>44894</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>44893</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>44892</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>44891</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>44890</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>44889</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>44888</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>44887</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>44886</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>44885</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44884</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>44883</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44882</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>44881</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>44880</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>44879</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>44878</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>44877</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>44876</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>44875</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>44874</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>44873</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>44872</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>44871</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>44870</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>44869</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>44868</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>44867</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>44866</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>44865</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>44864</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>44863</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>44862</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>44861</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>44860</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>44859</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>44858</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>44857</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>44856</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>44855</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>44854</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>44853</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>44852</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>44851</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>44850</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>44849</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>44848</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>44847</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>44846</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>44845</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>44844</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>44843</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>44842</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>44841</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>44840</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>44839</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>44838</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>44837</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>44836</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>44835</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>44834</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>44833</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>44832</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>44831</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>44830</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>44829</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>44828</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>44827</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>44826</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>44825</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>44824</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>44823</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>44822</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>44821</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>44820</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>44819</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>44818</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>44817</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>44816</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>44815</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>44814</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>44813</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>44812</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>44811</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>44810</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>44809</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>44808</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>44807</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>44806</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>44805</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>44804</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>44803</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>44802</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>44801</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>44800</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>44799</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>44798</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>44797</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>44796</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>44795</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>44794</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>44793</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>44792</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>44791</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>44790</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>44789</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>44788</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>44787</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>44786</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>44785</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>44784</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>44783</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>44782</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>44781</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>44780</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>44779</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>44778</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>44777</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>44776</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>44775</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>44774</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>44773</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>44772</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>44771</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>44770</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>44769</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>44768</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>44767</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>44766</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>44765</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>44764</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>44763</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>44762</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>44761</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>44760</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>44759</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>44758</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>44757</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>44756</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>44755</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>44754</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>44753</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>44752</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>44751</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>44750</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>44749</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>44748</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>44747</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>44746</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>44745</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>44744</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>44743</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>44742</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>44741</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>44740</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>44739</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>44738</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>44737</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>44736</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>44735</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>44734</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>44733</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>44732</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>44731</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>44730</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>44729</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>44728</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>44727</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>44726</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>44725</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>44724</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>44723</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>44722</v>
       </c>
@@ -9381,7 +9381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>44721</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>44720</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>44719</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>44718</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>44717</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>44716</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>44715</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>44714</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>44713</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>44712</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>44711</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>44710</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>44709</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>44708</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>44707</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>44706</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
         <v>44705</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>44704</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>44703</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>44702</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>44701</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>44700</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>44699</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
         <v>44698</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
         <v>44697</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>44696</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
         <v>44695</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
         <v>44694</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
         <v>44693</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
         <v>44692</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
         <v>44691</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
         <v>44690</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
         <v>44689</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
         <v>44688</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
         <v>44687</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
         <v>44686</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
         <v>44685</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
         <v>44684</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
         <v>44683</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
         <v>44682</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
         <v>44681</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
         <v>44680</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
         <v>44679</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
         <v>44678</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
         <v>44677</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>44676</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>44675</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <v>44674</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <v>44673</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <v>44672</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
         <v>44671</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
         <v>44670</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
         <v>44669</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
         <v>44668</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
         <v>44667</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
         <v>44666</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
         <v>44665</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
         <v>44664</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
         <v>44663</v>
       </c>
@@ -11623,7 +11623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
         <v>44662</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
         <v>44661</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
         <v>44660</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
         <v>44659</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
         <v>44658</v>
       </c>
@@ -11813,7 +11813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
         <v>44657</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
         <v>44656</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
         <v>44655</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
         <v>44654</v>
       </c>
@@ -11965,7 +11965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
         <v>44653</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
         <v>44652</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
         <v>44651</v>
       </c>
@@ -12079,7 +12079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
         <v>44650</v>
       </c>
@@ -12117,7 +12117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
         <v>44649</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
         <v>44648</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
         <v>44647</v>
       </c>
@@ -12231,7 +12231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
         <v>44646</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
         <v>44645</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
         <v>44644</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
         <v>44643</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
         <v>44642</v>
       </c>
@@ -12421,7 +12421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
         <v>44641</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
         <v>44640</v>
       </c>
@@ -12497,7 +12497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
         <v>44639</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
         <v>44638</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
         <v>44637</v>
       </c>
@@ -12611,7 +12611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
         <v>44636</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
         <v>44635</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
         <v>44634</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="3">
         <v>44633</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
         <v>44632</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
         <v>44631</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" s="3">
         <v>44630</v>
       </c>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="3">
         <v>44629</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
         <v>44628</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="3">
         <v>44627</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
         <v>44626</v>
       </c>
@@ -13029,7 +13029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
         <v>44625</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
         <v>44624</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="3">
         <v>44623</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="3">
         <v>44622</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="3">
         <v>44621</v>
       </c>
@@ -13219,7 +13219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
         <v>44620</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
         <v>44619</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="3">
         <v>44618</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="3">
         <v>44617</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="3">
         <v>44616</v>
       </c>
@@ -13409,7 +13409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="3">
         <v>44615</v>
       </c>
@@ -13447,7 +13447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="3">
         <v>44614</v>
       </c>
@@ -13485,7 +13485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="3">
         <v>44613</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="3">
         <v>44612</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="3">
         <v>44611</v>
       </c>
@@ -13599,7 +13599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="3">
         <v>44610</v>
       </c>
@@ -13637,7 +13637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="3">
         <v>44609</v>
       </c>
@@ -13675,7 +13675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" s="3">
         <v>44608</v>
       </c>
@@ -13713,7 +13713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" s="3">
         <v>44607</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" s="3">
         <v>44606</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="3">
         <v>44605</v>
       </c>
@@ -13827,7 +13827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" s="3">
         <v>44604</v>
       </c>
@@ -13865,7 +13865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" s="3">
         <v>44603</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="3">
         <v>44602</v>
       </c>
@@ -13941,7 +13941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="3">
         <v>44601</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" s="3">
         <v>44600</v>
       </c>
@@ -14017,7 +14017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" s="3">
         <v>44599</v>
       </c>
@@ -14055,7 +14055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" s="3">
         <v>44598</v>
       </c>
@@ -14093,7 +14093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" s="3">
         <v>44597</v>
       </c>
@@ -14131,7 +14131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" s="3">
         <v>44596</v>
       </c>
@@ -14169,7 +14169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" s="3">
         <v>44595</v>
       </c>
@@ -14207,7 +14207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" s="3">
         <v>44594</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" s="3">
         <v>44593</v>
       </c>
@@ -14283,7 +14283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" s="3">
         <v>44592</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" s="3">
         <v>44591</v>
       </c>
@@ -14359,7 +14359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" s="3">
         <v>44590</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" s="3">
         <v>44589</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" s="3">
         <v>44588</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" s="3">
         <v>44587</v>
       </c>
@@ -14511,7 +14511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" s="3">
         <v>44586</v>
       </c>
@@ -14549,7 +14549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" s="3">
         <v>44585</v>
       </c>
@@ -14587,7 +14587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" s="3">
         <v>44584</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" s="3">
         <v>44583</v>
       </c>
@@ -14663,7 +14663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" s="3">
         <v>44582</v>
       </c>
@@ -14701,7 +14701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" s="3">
         <v>44581</v>
       </c>
@@ -14739,7 +14739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" s="3">
         <v>44580</v>
       </c>
@@ -14777,7 +14777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" s="3">
         <v>44579</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" s="3">
         <v>44578</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" s="3">
         <v>44577</v>
       </c>
@@ -14891,7 +14891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" s="3">
         <v>44576</v>
       </c>
@@ -14929,7 +14929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" s="3">
         <v>44575</v>
       </c>
@@ -14967,7 +14967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" s="3">
         <v>44574</v>
       </c>
@@ -15005,7 +15005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" s="3">
         <v>44573</v>
       </c>
@@ -15043,7 +15043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" s="3">
         <v>44572</v>
       </c>
@@ -15081,7 +15081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" s="3">
         <v>44571</v>
       </c>
@@ -15119,7 +15119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" s="3">
         <v>44570</v>
       </c>
@@ -15157,7 +15157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="3">
         <v>44569</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" s="3">
         <v>44568</v>
       </c>
@@ -15233,364 +15233,364 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" s="3"/>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" s="3"/>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" s="3"/>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" s="3"/>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" s="3"/>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" s="3"/>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" s="3"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="3"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="3"/>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="3"/>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="3"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="3"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="3"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" s="3"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="3"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="3"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="3"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="3"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="3"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="3"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="3"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" s="3"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="3"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="3"/>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="3"/>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="3"/>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="3"/>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="3"/>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="3"/>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="3"/>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="3"/>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="3"/>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="3"/>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="3"/>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="3"/>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="3"/>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="3"/>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" s="3"/>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" s="3"/>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" s="3"/>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" s="3"/>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" s="3"/>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" s="3"/>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" s="3"/>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" s="3"/>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" s="3"/>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" s="3"/>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" s="3"/>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" s="3"/>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" s="3"/>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" s="3"/>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" s="3"/>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" s="3"/>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" s="3"/>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" s="3"/>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" s="3"/>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" s="3"/>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" s="3"/>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" s="3"/>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" s="3"/>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" s="3"/>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" s="3"/>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" s="3"/>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" s="3"/>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" s="3"/>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" s="3"/>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" s="3"/>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" s="3"/>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" s="3"/>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" s="3"/>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" s="3"/>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" s="3"/>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" s="3"/>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" s="3"/>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" s="3"/>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" s="3"/>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" s="3"/>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" s="3"/>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" s="3"/>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" s="3"/>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" s="3"/>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" s="3"/>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" s="3"/>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" s="3"/>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" s="3"/>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" s="3"/>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" s="3"/>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" s="3"/>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" s="3"/>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" s="3"/>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" s="3"/>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" s="3"/>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" s="3"/>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" s="3"/>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" s="3"/>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" s="3"/>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" s="3"/>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" s="3"/>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" s="3"/>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" s="3"/>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" s="3"/>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" s="3"/>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" s="3"/>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" s="3"/>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" s="3"/>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" s="3"/>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" s="3"/>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" s="3"/>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" s="3"/>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" s="3"/>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" s="3"/>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" s="3"/>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" s="3"/>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" s="3"/>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" s="3"/>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" s="3"/>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" s="3"/>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" s="3"/>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" s="3"/>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" s="3"/>
     </row>
   </sheetData>
